--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15960"/>
+    <workbookView windowWidth="28000" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>结束特效ID</t>
+  </si>
+  <si>
+    <t>英雄1000子弹</t>
   </si>
   <si>
     <t>防御塔子弹</t>
@@ -728,7 +731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,9 +739,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1069,13 +1069,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.8571428571429" style="1" customWidth="1"/>
@@ -1145,90 +1145,120 @@
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="2:8">
-      <c r="B4" s="5">
-        <v>31000001</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6">
-        <v>10000</v>
-      </c>
-      <c r="E4" s="5">
-        <v>310000011</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6"/>
+    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:8">
-      <c r="B5" s="5">
-        <v>40020001</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6">
-        <v>20000</v>
-      </c>
-      <c r="E5" s="5">
-        <v>400200011</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5">
-        <v>11</v>
-      </c>
-      <c r="H5" s="6"/>
+      <c r="B5" s="4">
+        <v>10000201</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="4">
+        <v>100002011</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:8">
-      <c r="B6" s="5">
+      <c r="B6" s="4">
+        <v>31000001</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>310000011</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:8">
+      <c r="B7" s="4">
+        <v>40020001</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>400200011</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>11</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="4">
         <v>49000001</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5">
         <v>10000</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E8" s="4">
         <v>490000011</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F8" s="4">
         <v>3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G8" s="4">
         <v>10</v>
       </c>
-      <c r="H6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>int#ref=TbTrack</t>
   </si>
   <si>
     <t>##</t>
@@ -1072,7 +1075,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1082,7 +1085,7 @@
     <col min="3" max="3" width="12.7142857142857" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.21428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85714285714286" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.2142857142857" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.57142857142857" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.7142857142857" style="1" customWidth="1"/>
     <col min="9" max="9" width="53.5714285714286" style="1" customWidth="1"/>
@@ -1132,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
@@ -1143,28 +1146,28 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
@@ -1182,7 +1185,7 @@
         <v>10000201</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5">
         <v>10000</v>
@@ -1191,7 +1194,7 @@
         <v>100002011</v>
       </c>
       <c r="F5" s="4">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="G5" s="4">
         <v>10</v>
@@ -1203,7 +1206,7 @@
         <v>31000001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5">
         <v>10000</v>
@@ -1212,7 +1215,7 @@
         <v>310000011</v>
       </c>
       <c r="F6" s="4">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="G6" s="4">
         <v>10</v>
@@ -1224,7 +1227,7 @@
         <v>40020001</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5">
         <v>20000</v>
@@ -1233,7 +1236,7 @@
         <v>400200011</v>
       </c>
       <c r="F7" s="4">
-        <v>3</v>
+        <v>1002</v>
       </c>
       <c r="G7" s="4">
         <v>11</v>
@@ -1245,7 +1248,7 @@
         <v>49000001</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5">
         <v>10000</v>
@@ -1254,7 +1257,7 @@
         <v>490000011</v>
       </c>
       <c r="F8" s="4">
-        <v>3</v>
+        <v>1002</v>
       </c>
       <c r="G8" s="4">
         <v>10</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -34,7 +34,7 @@
     <t>track_id</t>
   </si>
   <si>
-    <t>effect_id</t>
+    <t>resource_id</t>
   </si>
   <si>
     <t>finish_effect_id</t>
@@ -52,6 +52,9 @@
     <t>int#ref=TbTrack</t>
   </si>
   <si>
+    <t>int#ref=TbSkillResource</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -70,7 +73,7 @@
     <t>轨迹ID</t>
   </si>
   <si>
-    <t>特效ID</t>
+    <t>技能资源ID</t>
   </si>
   <si>
     <t>结束特效ID</t>
@@ -1086,7 +1089,7 @@
     <col min="4" max="4" width="9.21428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.1428571428571" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.2142857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.57142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.8571428571429" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.7142857142857" style="1" customWidth="1"/>
     <col min="9" max="9" width="53.5714285714286" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
@@ -1138,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
@@ -1146,28 +1149,28 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
@@ -1185,7 +1188,7 @@
         <v>10000201</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5">
         <v>10000</v>
@@ -1206,7 +1209,7 @@
         <v>31000001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5">
         <v>10000</v>
@@ -1227,7 +1230,7 @@
         <v>40020001</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5">
         <v>20000</v>
@@ -1248,7 +1251,7 @@
         <v>49000001</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5">
         <v>10000</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>int#ref=TbTrack</t>
-  </si>
-  <si>
-    <t>int#ref=TbSkillResource</t>
   </si>
   <si>
     <t>##</t>
@@ -1141,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
@@ -1149,28 +1146,28 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
@@ -1188,7 +1185,7 @@
         <v>10000201</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5">
         <v>10000</v>
@@ -1209,7 +1206,7 @@
         <v>31000001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5">
         <v>10000</v>
@@ -1230,7 +1227,7 @@
         <v>40020001</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5">
         <v>20000</v>
@@ -1251,7 +1248,7 @@
         <v>49000001</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5">
         <v>10000</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -52,6 +52,9 @@
     <t>int#ref=TbTrack</t>
   </si>
   <si>
+    <t>int#ref=TbSkillResource</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -74,6 +77,12 @@
   </si>
   <si>
     <t>结束特效ID</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>英雄1000子弹</t>
@@ -1075,7 +1084,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1138,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
@@ -1146,38 +1155,42 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:8">
@@ -1185,7 +1198,7 @@
         <v>10000201</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5">
         <v>10000</v>
@@ -1206,7 +1219,7 @@
         <v>31000001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5">
         <v>10000</v>
@@ -1227,7 +1240,7 @@
         <v>40020001</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5">
         <v>20000</v>
@@ -1248,7 +1261,7 @@
         <v>49000001</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5">
         <v>10000</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1207,7 +1207,7 @@
         <v>100002011</v>
       </c>
       <c r="F5" s="4">
-        <v>1002</v>
+        <v>2002</v>
       </c>
       <c r="G5" s="4">
         <v>10</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15900"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -89,12 +89,6 @@
   </si>
   <si>
     <t>防御塔子弹</t>
-  </si>
-  <si>
-    <t>远程植物子弹</t>
-  </si>
-  <si>
-    <t>中立怪子弹</t>
   </si>
 </sst>
 </file>
@@ -1081,13 +1075,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.8571428571429" style="1" customWidth="1"/>
@@ -1225,7 +1219,7 @@
         <v>10000</v>
       </c>
       <c r="E6" s="4">
-        <v>310000011</v>
+        <v>300100011</v>
       </c>
       <c r="F6" s="4">
         <v>1002</v>
@@ -1234,47 +1228,6 @@
         <v>10</v>
       </c>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="4">
-        <v>40020001</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5">
-        <v>20000</v>
-      </c>
-      <c r="E7" s="4">
-        <v>400200011</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1002</v>
-      </c>
-      <c r="G7" s="4">
-        <v>11</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="4">
-        <v>49000001</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="5">
-        <v>10000</v>
-      </c>
-      <c r="E8" s="4">
-        <v>490000011</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1002</v>
-      </c>
-      <c r="G8" s="4">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="2:8">
       <c r="B5" s="4">
-        <v>10000201</v>
+        <v>10010201</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>23</v>
@@ -1198,7 +1198,7 @@
         <v>10000</v>
       </c>
       <c r="E5" s="4">
-        <v>100002011</v>
+        <v>100102011</v>
       </c>
       <c r="F5" s="4">
         <v>2002</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17560"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -73,7 +73,7 @@
     <t>轨迹ID</t>
   </si>
   <si>
-    <t>技能资源ID</t>
+    <t>子弹资源ID</t>
   </si>
   <si>
     <t>结束特效ID</t>
@@ -1075,13 +1075,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.8571428571429" style="1" customWidth="1"/>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="2:8">
       <c r="B6" s="4">
-        <v>31000001</v>
+        <v>30000001</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>24</v>
@@ -1219,15 +1219,36 @@
         <v>10000</v>
       </c>
       <c r="E6" s="4">
-        <v>300100011</v>
+        <v>300000011</v>
       </c>
       <c r="F6" s="4">
-        <v>1002</v>
+        <v>3003</v>
       </c>
       <c r="G6" s="4">
         <v>10</v>
       </c>
       <c r="H6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:8">
+      <c r="B7" s="4">
+        <v>30010001</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>300100011</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1002</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -89,6 +89,30 @@
   </si>
   <si>
     <t>防御塔子弹</t>
+  </si>
+  <si>
+    <t>BulletCircle</t>
+  </si>
+  <si>
+    <t>BulletFlower4</t>
+  </si>
+  <si>
+    <t>BulletFlower5</t>
+  </si>
+  <si>
+    <t>BulletHexagon</t>
+  </si>
+  <si>
+    <t>BulletSnowflake</t>
+  </si>
+  <si>
+    <t>BulletSquare</t>
+  </si>
+  <si>
+    <t>BulletStar</t>
+  </si>
+  <si>
+    <t>BulletTriangle</t>
   </si>
 </sst>
 </file>
@@ -737,7 +761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +779,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1075,17 +1102,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.2142857142857" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.21428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.1428571428571" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.2142857142857" style="1" customWidth="1"/>
@@ -1204,7 +1231,7 @@
         <v>2002</v>
       </c>
       <c r="G5" s="4">
-        <v>10</v>
+        <v>80010001</v>
       </c>
       <c r="H5" s="5"/>
     </row>
@@ -1225,7 +1252,7 @@
         <v>3003</v>
       </c>
       <c r="G6" s="4">
-        <v>10</v>
+        <v>80010001</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -1246,9 +1273,145 @@
         <v>1002</v>
       </c>
       <c r="G7" s="4">
-        <v>10</v>
+        <v>80010001</v>
       </c>
       <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1">
+        <v>80020001</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3004</v>
+      </c>
+      <c r="G8" s="1">
+        <v>80020001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1">
+        <v>80020002</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G9" s="1">
+        <v>80020002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1">
+        <v>80020003</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G10" s="1">
+        <v>80020003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1">
+        <v>80020004</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3004</v>
+      </c>
+      <c r="G11" s="1">
+        <v>80020004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1">
+        <v>80020005</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G12" s="1">
+        <v>80020005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1">
+        <v>80020006</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3004</v>
+      </c>
+      <c r="G13" s="1">
+        <v>80020006</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="1">
+        <v>80020007</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3004</v>
+      </c>
+      <c r="G14" s="1">
+        <v>80020007</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1">
+        <v>80020008</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3004</v>
+      </c>
+      <c r="G15" s="1">
+        <v>80020008</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowWidth="28000" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1338,6 +1338,9 @@
       <c r="D11" s="5">
         <v>10000</v>
       </c>
+      <c r="E11" s="1">
+        <v>300400011</v>
+      </c>
       <c r="F11" s="1">
         <v>3004</v>
       </c>
@@ -1355,6 +1358,9 @@
       <c r="D12" s="5">
         <v>10000</v>
       </c>
+      <c r="E12" s="1">
+        <v>300500011</v>
+      </c>
       <c r="F12" s="1">
         <v>2004</v>
       </c>
@@ -1389,6 +1395,9 @@
       <c r="D14" s="5">
         <v>10000</v>
       </c>
+      <c r="E14" s="1">
+        <v>300700011</v>
+      </c>
       <c r="F14" s="1">
         <v>3004</v>
       </c>
@@ -1405,6 +1414,9 @@
       </c>
       <c r="D15" s="5">
         <v>10000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>300800011</v>
       </c>
       <c r="F15" s="1">
         <v>3004</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15820"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
@@ -1399,7 +1399,7 @@
         <v>300700011</v>
       </c>
       <c r="F14" s="1">
-        <v>3004</v>
+        <v>2002</v>
       </c>
       <c r="G14" s="1">
         <v>80020007</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>防御塔子弹</t>
+  </si>
+  <si>
+    <t>士兵子弹</t>
   </si>
   <si>
     <t>BulletCircle</t>
@@ -761,11 +764,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
@@ -1123,305 +1129,326 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:8">
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>10010201</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>10000</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>100102011</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>2002</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>80010001</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:8">
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>30000001</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>10000</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>300000011</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>3003</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>80010001</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>30010001</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>10000</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>300100011</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>1002</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>80010001</v>
       </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1">
-        <v>80020001</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:8">
+      <c r="B8" s="5">
+        <v>40020001</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>10000</v>
       </c>
-      <c r="F8" s="1">
-        <v>3004</v>
-      </c>
-      <c r="G8" s="1">
-        <v>80020001</v>
-      </c>
+      <c r="E8" s="5">
+        <v>400200011</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1004</v>
+      </c>
+      <c r="G8" s="5">
+        <v>80010001</v>
+      </c>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="1">
-        <v>80020002</v>
-      </c>
-      <c r="C9" s="6" t="s">
+        <v>80020001</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>10000</v>
       </c>
       <c r="F9" s="1">
-        <v>2004</v>
+        <v>3004</v>
       </c>
       <c r="G9" s="1">
-        <v>80020002</v>
+        <v>80020001</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="1">
-        <v>80020003</v>
-      </c>
-      <c r="C10" s="6" t="s">
+        <v>80020002</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>10000</v>
       </c>
       <c r="F10" s="1">
         <v>2004</v>
       </c>
       <c r="G10" s="1">
-        <v>80020003</v>
+        <v>80020002</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="1">
-        <v>80020004</v>
-      </c>
-      <c r="C11" s="6" t="s">
+        <v>80020003</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>10000</v>
       </c>
-      <c r="E11" s="1">
-        <v>300400011</v>
-      </c>
       <c r="F11" s="1">
-        <v>3004</v>
+        <v>2004</v>
       </c>
       <c r="G11" s="1">
-        <v>80020004</v>
+        <v>80020003</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="1">
-        <v>80020005</v>
-      </c>
-      <c r="C12" s="6" t="s">
+        <v>80020004</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>10000</v>
       </c>
       <c r="E12" s="1">
-        <v>300500011</v>
+        <v>300400011</v>
       </c>
       <c r="F12" s="1">
-        <v>2004</v>
+        <v>3004</v>
       </c>
       <c r="G12" s="1">
-        <v>80020005</v>
+        <v>80020004</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="1">
-        <v>80020006</v>
-      </c>
-      <c r="C13" s="6" t="s">
+        <v>80020005</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>10000</v>
       </c>
+      <c r="E13" s="1">
+        <v>300500011</v>
+      </c>
       <c r="F13" s="1">
-        <v>3004</v>
+        <v>2004</v>
       </c>
       <c r="G13" s="1">
-        <v>80020006</v>
+        <v>80020005</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="1">
-        <v>80020007</v>
-      </c>
-      <c r="C14" s="6" t="s">
+        <v>80020006</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>10000</v>
       </c>
-      <c r="E14" s="1">
-        <v>300700011</v>
-      </c>
       <c r="F14" s="1">
-        <v>2002</v>
+        <v>3004</v>
       </c>
       <c r="G14" s="1">
-        <v>80020007</v>
+        <v>80020006</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="1">
+        <v>80020007</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>300700011</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G15" s="1">
+        <v>80020007</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1">
         <v>80020008</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="6">
         <v>10000</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <v>300800011</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F16" s="1">
         <v>3004</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G16" s="1">
         <v>80020008</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowHeight="18200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
@@ -1405,6 +1405,9 @@
       <c r="D14" s="6">
         <v>10000</v>
       </c>
+      <c r="E14" s="1">
+        <v>300600014</v>
+      </c>
       <c r="F14" s="1">
         <v>3004</v>
       </c>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18200"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -13,8 +13,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>stone</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>控制点万分比
+趋近0即为趋近释放点
+趋近1即为趋近目标点</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -25,15 +49,21 @@
     <t>name</t>
   </si>
   <si>
+    <t>hor_speed</t>
+  </si>
+  <si>
+    <t>control_factor</t>
+  </si>
+  <si>
+    <t>control_height</t>
+  </si>
+  <si>
     <t>life</t>
   </si>
   <si>
     <t>effect_group_id</t>
   </si>
   <si>
-    <t>track_id</t>
-  </si>
-  <si>
     <t>resource_id</t>
   </si>
   <si>
@@ -49,9 +79,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>int#ref=TbTrack</t>
-  </si>
-  <si>
     <t>int#ref=TbSkillResource</t>
   </si>
   <si>
@@ -64,13 +91,19 @@
     <t>名称</t>
   </si>
   <si>
+    <t>水平速度</t>
+  </si>
+  <si>
+    <t>控制点万分比</t>
+  </si>
+  <si>
+    <t>控制点高度</t>
+  </si>
+  <si>
     <t>生存时间</t>
   </si>
   <si>
     <t>效果组ID</t>
-  </si>
-  <si>
-    <t>轨迹ID</t>
   </si>
   <si>
     <t>子弹资源ID</t>
@@ -128,7 +161,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +330,11 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="34">
@@ -764,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,14 +818,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1108,27 +1152,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.2142857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2142857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.8571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="53.5714285714286" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="11.2142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21428571428571" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1428571428571" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.8571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="11" width="53.5714285714286" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1138,13 +1184,13 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -1153,310 +1199,371 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+    <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:8">
-      <c r="B5" s="5">
+    <row r="5" s="1" customFormat="1" spans="2:10">
+      <c r="B5" s="6">
         <v>10010201</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7">
+        <v>80000</v>
+      </c>
+      <c r="E5" s="7">
+        <v>8000</v>
+      </c>
+      <c r="F5" s="7">
+        <v>40000</v>
+      </c>
+      <c r="G5" s="9">
         <v>10000</v>
       </c>
-      <c r="E5" s="5">
+      <c r="H5" s="6">
         <v>100102011</v>
       </c>
-      <c r="F5" s="5">
-        <v>2002</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="I5" s="6">
         <v>80010001</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="J5" s="9"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:8">
-      <c r="B6" s="5">
+    <row r="6" s="1" customFormat="1" spans="2:10">
+      <c r="B6" s="6">
         <v>30000001</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E6" s="7">
+        <v>-2000</v>
+      </c>
+      <c r="F6" s="7">
+        <v>40000</v>
+      </c>
+      <c r="G6" s="9">
         <v>10000</v>
       </c>
-      <c r="E6" s="5">
+      <c r="H6" s="6">
         <v>300000011</v>
       </c>
-      <c r="F6" s="5">
-        <v>3003</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="I6" s="6">
         <v>80010001</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="J6" s="9"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="5">
+    <row r="7" s="1" customFormat="1" spans="2:10">
+      <c r="B7" s="6">
         <v>30010001</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7">
+        <v>60000</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="7">
+        <v>40000</v>
+      </c>
+      <c r="G7" s="9">
         <v>10000</v>
       </c>
-      <c r="E7" s="5">
+      <c r="H7" s="6">
         <v>300100011</v>
       </c>
-      <c r="F7" s="5">
-        <v>1002</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="I7" s="6">
         <v>80010001</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="J7" s="9"/>
     </row>
-    <row r="8" s="2" customFormat="1" spans="2:8">
-      <c r="B8" s="5">
+    <row r="8" s="2" customFormat="1" spans="2:10">
+      <c r="B8" s="6">
         <v>40020001</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D8" s="6">
+        <v>60000</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="9">
         <v>10000</v>
       </c>
-      <c r="E8" s="5">
+      <c r="H8" s="6">
         <v>400200011</v>
       </c>
-      <c r="F8" s="5">
-        <v>1004</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="I8" s="6">
         <v>80010001</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:9">
       <c r="B9" s="1">
         <v>80020001</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="8">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9">
         <v>10000</v>
       </c>
-      <c r="F9" s="1">
-        <v>3004</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>80020001</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:9">
       <c r="B10" s="1">
         <v>80020002</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7">
+        <v>80000</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9">
         <v>10000</v>
       </c>
-      <c r="F10" s="1">
-        <v>2004</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>80020002</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:9">
       <c r="B11" s="1">
         <v>80020003</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7">
+        <v>80000</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9">
         <v>10000</v>
       </c>
-      <c r="F11" s="1">
-        <v>2004</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>80020003</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:9">
       <c r="B12" s="1">
         <v>80020004</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8">
+        <v>100000</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9">
         <v>10000</v>
       </c>
-      <c r="E12" s="1">
+      <c r="H12" s="1">
         <v>300400011</v>
       </c>
-      <c r="F12" s="1">
-        <v>3004</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <v>80020004</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:9">
       <c r="B13" s="1">
         <v>80020005</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7">
+        <v>80000</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9">
         <v>10000</v>
       </c>
-      <c r="E13" s="1">
+      <c r="H13" s="1">
         <v>300500011</v>
       </c>
-      <c r="F13" s="1">
-        <v>2004</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <v>80020005</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:9">
       <c r="B14" s="1">
         <v>80020006</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8">
+        <v>100000</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9">
         <v>10000</v>
       </c>
-      <c r="E14" s="1">
+      <c r="H14" s="1">
         <v>300600014</v>
       </c>
-      <c r="F14" s="1">
-        <v>3004</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
         <v>80020006</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:9">
       <c r="B15" s="1">
         <v>80020007</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7">
+        <v>80000</v>
+      </c>
+      <c r="E15" s="7">
+        <v>8000</v>
+      </c>
+      <c r="F15" s="7">
+        <v>40000</v>
+      </c>
+      <c r="G15" s="9">
         <v>10000</v>
       </c>
-      <c r="E15" s="1">
+      <c r="H15" s="1">
         <v>300700011</v>
       </c>
-      <c r="F15" s="1">
-        <v>2002</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="I15" s="1">
         <v>80020007</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:9">
       <c r="B16" s="1">
         <v>80020008</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="8">
+        <v>100000</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9">
         <v>10000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="H16" s="1">
         <v>300800011</v>
       </c>
-      <c r="F16" s="1">
-        <v>3004</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="I16" s="1">
         <v>80020008</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -121,7 +121,10 @@
     <t>英雄1000子弹</t>
   </si>
   <si>
-    <t>防御塔子弹</t>
+    <t>大本营自动子弹</t>
+  </si>
+  <si>
+    <t>大本营手动子弹</t>
   </si>
   <si>
     <t>士兵子弹</t>
@@ -1155,7 +1158,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1342,25 +1345,21 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="2:10">
       <c r="B7" s="6">
-        <v>30010001</v>
+        <v>30000002</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>60000</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F7" s="7">
-        <v>40000</v>
-      </c>
+        <v>80000</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="9">
         <v>10000</v>
       </c>
       <c r="H7" s="6">
-        <v>300100011</v>
+        <v>300000020</v>
       </c>
       <c r="I7" s="6">
         <v>80010001</v>
@@ -1372,7 +1371,7 @@
         <v>40020001</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6">
         <v>60000</v>
@@ -1395,7 +1394,7 @@
         <v>80020001</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8">
         <v>100000</v>
@@ -1414,7 +1413,7 @@
         <v>80020002</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
         <v>80000</v>
@@ -1433,7 +1432,7 @@
         <v>80020003</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
         <v>80000</v>
@@ -1452,7 +1451,7 @@
         <v>80020004</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8">
         <v>100000</v>
@@ -1474,7 +1473,7 @@
         <v>80020005</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
         <v>80000</v>
@@ -1496,7 +1495,7 @@
         <v>80020006</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8">
         <v>100000</v>
@@ -1518,7 +1517,7 @@
         <v>80020007</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7">
         <v>80000</v>
@@ -1544,7 +1543,7 @@
         <v>80020008</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="8">
         <v>100000</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1351,7 +1351,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Bullet.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -124,7 +124,10 @@
     <t>大本营自动子弹</t>
   </si>
   <si>
-    <t>大本营手动子弹</t>
+    <t>大本营手动子弹1</t>
+  </si>
+  <si>
+    <t>大本营手动子弹2</t>
   </si>
   <si>
     <t>士兵子弹</t>
@@ -1155,10 +1158,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1366,57 +1369,65 @@
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" s="2" customFormat="1" spans="2:10">
+    <row r="8" s="1" customFormat="1" spans="2:10">
       <c r="B8" s="6">
-        <v>40020001</v>
+        <v>30000003</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="6">
-        <v>60000</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="7">
+        <v>80000</v>
+      </c>
       <c r="G8" s="9">
         <v>10000</v>
       </c>
       <c r="H8" s="6">
-        <v>400200011</v>
+        <v>300000030</v>
       </c>
       <c r="I8" s="6">
         <v>80010001</v>
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="1">
-        <v>80020001</v>
-      </c>
-      <c r="C9" s="8" t="s">
+    <row r="9" s="2" customFormat="1" spans="2:10">
+      <c r="B9" s="6">
+        <v>40020001</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="8">
-        <v>100000</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="6">
+        <v>60000</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="9">
         <v>10000</v>
       </c>
-      <c r="I9" s="1">
-        <v>80020001</v>
-      </c>
+      <c r="H9" s="6">
+        <v>400200011</v>
+      </c>
+      <c r="I9" s="6">
+        <v>80010001</v>
+      </c>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="1">
-        <v>80020002</v>
+        <v>80020001</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="7">
-        <v>80000</v>
+      <c r="D10" s="8">
+        <v>100000</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1424,12 +1435,12 @@
         <v>10000</v>
       </c>
       <c r="I10" s="1">
-        <v>80020002</v>
+        <v>80020001</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="1">
-        <v>80020003</v>
+        <v>80020002</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>32</v>
@@ -1443,40 +1454,37 @@
         <v>10000</v>
       </c>
       <c r="I11" s="1">
-        <v>80020003</v>
+        <v>80020002</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1">
-        <v>80020004</v>
+        <v>80020003</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="8">
-        <v>100000</v>
+      <c r="D12" s="7">
+        <v>80000</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9">
         <v>10000</v>
       </c>
-      <c r="H12" s="1">
-        <v>300400011</v>
-      </c>
       <c r="I12" s="1">
-        <v>80020004</v>
+        <v>80020003</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="1">
-        <v>80020005</v>
+        <v>80020004</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="7">
-        <v>80000</v>
+      <c r="D13" s="8">
+        <v>100000</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1484,21 +1492,21 @@
         <v>10000</v>
       </c>
       <c r="H13" s="1">
-        <v>300500011</v>
+        <v>300400011</v>
       </c>
       <c r="I13" s="1">
-        <v>80020005</v>
+        <v>80020004</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="1">
-        <v>80020006</v>
+        <v>80020005</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="8">
-        <v>100000</v>
+      <c r="D14" s="7">
+        <v>80000</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1506,57 +1514,79 @@
         <v>10000</v>
       </c>
       <c r="H14" s="1">
-        <v>300600014</v>
+        <v>300500011</v>
       </c>
       <c r="I14" s="1">
-        <v>80020006</v>
+        <v>80020005</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="1">
-        <v>80020007</v>
+        <v>80020006</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="7">
-        <v>80000</v>
-      </c>
-      <c r="E15" s="7">
-        <v>8000</v>
-      </c>
-      <c r="F15" s="7">
-        <v>40000</v>
-      </c>
+      <c r="D15" s="8">
+        <v>100000</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="9">
         <v>10000</v>
       </c>
       <c r="H15" s="1">
-        <v>300700011</v>
+        <v>300600014</v>
       </c>
       <c r="I15" s="1">
-        <v>80020007</v>
+        <v>80020006</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="1">
-        <v>80020008</v>
+        <v>80020007</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="8">
-        <v>100000</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="7">
+        <v>80000</v>
+      </c>
+      <c r="E16" s="7">
+        <v>8000</v>
+      </c>
+      <c r="F16" s="7">
+        <v>40000</v>
+      </c>
       <c r="G16" s="9">
         <v>10000</v>
       </c>
       <c r="H16" s="1">
+        <v>300700011</v>
+      </c>
+      <c r="I16" s="1">
+        <v>80020007</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="1">
+        <v>80020008</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8">
+        <v>100000</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9">
+        <v>10000</v>
+      </c>
+      <c r="H17" s="1">
         <v>300800011</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I17" s="1">
         <v>80020008</v>
       </c>
     </row>
